--- a/To_do_list/to-do-list.xlsx
+++ b/To_do_list/to-do-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\To_do_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A752686C-6070-4A79-8E19-2B4260865F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E536206-41D8-40D5-80D0-998DB3509D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,13 +142,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -189,6 +194,1996 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Check Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="222250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Check Box 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1217C717-26FD-4C6E-AFA1-26D38A5595F8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="222250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Check Box 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{476F6969-DD49-42A5-8E7F-C7B2EB0CA269}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="222250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Check Box 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B64E9AB0-43A9-44DF-9095-A3619AA0C630}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="222250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Check Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA78412E-25FA-4BBF-A34B-30D746BA9F28}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="222250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Check Box 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02AEF388-3B9D-4769-9DF2-71E38ED25377}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="222250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Check Box 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7A2B41C-F296-4953-9D13-C324601191E3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="222250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Check Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135D71C6-71B8-4367-B4CA-87F260DD3918}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="222250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Check Box 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5156F29C-C6BF-47CE-B2BD-912374A30971}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="222250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1034" name="Check Box 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC9FAE1-CDF0-4618-A65C-0F93723791E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="222250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Check Box 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E3C881-F532-449B-BB22-675BCB283B67}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="222250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1036" name="Check Box 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1036"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{728D404C-4E47-4923-84F0-EC770B774049}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="222250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B183349A-AD91-4C29-B100-E1A1BCE1A9C2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="222250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1038"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3489B39-6703-45C9-B751-906A2E82E2EE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="222250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1039"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E5A55C-478D-4AE6-A6A5-407FF0D32F0C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="222250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1040"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE9447E3-BC87-4772-A9E7-05791AFC0BBA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="222250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1041"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B0F794D-01DE-4D25-BFA1-3320D80CBD78}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="222250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1042"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D60807C-1F3D-460D-AE58-44678B0208B6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="222250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1043" name="Check Box 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1043"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE8330AF-8F2D-4BB9-904E-1F840A000F4D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="222250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1044" name="Check Box 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1044"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2932B3B-5033-48FD-B257-07E092C8CF91}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="222250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1045" name="Check Box 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1045"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6028AC6D-08A4-4612-9A91-FB51CF8968CB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="222250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1046" name="Check Box 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1046"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CECAB04-E58F-4542-8578-1231ED1BB3F4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="222250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1047" name="Check Box 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1047"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61A9B3A8-4FE6-4C89-B959-72C841790376}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="222250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1048"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4E79506-EC83-424C-B5E7-17B30EF1B421}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="222250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D53278C1-BF0E-43CE-B993-FA77BCC87C63}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="222250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1050"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24A92536-6C9F-4531-B7CF-6A5512D4A416}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="222250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1051" name="Check Box 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1051"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6736F750-4E16-4CA8-A9E8-886D8598E7EB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="222250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1052" name="Check Box 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1052"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CDA1C64-89EB-4A11-B191-3BC249C31F9D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="222250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1053"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63342E43-19F4-4120-9C9E-8FC63407C3D5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="222250"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1054"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{244C822A-BFC8-49EB-9B79-D7DE0A2F09B9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,12 +2448,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -814,5 +2809,674 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId4" name="Check Box 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId5" name="Check Box 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1027" r:id="rId6" name="Check Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1028" r:id="rId7" name="Check Box 4">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId8" name="Check Box 5">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1030" r:id="rId9" name="Check Box 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1031" r:id="rId10" name="Check Box 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1032" r:id="rId11" name="Check Box 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1033" r:id="rId12" name="Check Box 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1034" r:id="rId13" name="Check Box 10">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId14" name="Check Box 11">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1036" r:id="rId15" name="Check Box 12">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1037" r:id="rId16" name="Check Box 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1038" r:id="rId17" name="Check Box 14">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1039" r:id="rId18" name="Check Box 15">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1040" r:id="rId19" name="Check Box 16">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1041" r:id="rId20" name="Check Box 17">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1042" r:id="rId21" name="Check Box 18">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1043" r:id="rId22" name="Check Box 19">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1044" r:id="rId23" name="Check Box 20">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1045" r:id="rId24" name="Check Box 21">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1046" r:id="rId25" name="Check Box 22">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1047" r:id="rId26" name="Check Box 23">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1048" r:id="rId27" name="Check Box 24">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1049" r:id="rId28" name="Check Box 25">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1050" r:id="rId29" name="Check Box 26">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1051" r:id="rId30" name="Check Box 27">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1052" r:id="rId31" name="Check Box 28">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1053" r:id="rId32" name="Check Box 29">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1054" r:id="rId33" name="Check Box 30">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
--- a/To_do_list/to-do-list.xlsx
+++ b/To_do_list/to-do-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\To_do_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E536206-41D8-40D5-80D0-998DB3509D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BA858F-0A35-4F67-A473-AAA74A1765AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>Done</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Review team performance reports</t>
+  </si>
+  <si>
+    <t>Linked</t>
   </si>
 </sst>
 </file>
@@ -2449,11 +2452,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2463,7 +2466,7 @@
     <col min="4" max="4" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2476,8 +2479,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -2488,7 +2494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -2499,7 +2505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -2510,7 +2516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2521,7 +2527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -2532,7 +2538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -2543,7 +2549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -2554,7 +2560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -2565,7 +2571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -2576,7 +2582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>16</v>
       </c>
@@ -2587,7 +2593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -2598,7 +2604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>18</v>
       </c>
@@ -2609,7 +2615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>19</v>
       </c>
@@ -2620,7 +2626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -2631,7 +2637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>21</v>
       </c>

--- a/To_do_list/to-do-list.xlsx
+++ b/To_do_list/to-do-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\To_do_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BA858F-0A35-4F67-A473-AAA74A1765AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417D5B19-8757-4E31-91D0-3C5602BC9BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,123 +200,123 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$2" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$11" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$12" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$13" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$15" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$16" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$18" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$19" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$20" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$22" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$24" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$25" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$26" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$27" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$28" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$29" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$30" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$4" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$31" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$6" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$8" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$10" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2455,8 +2455,8 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/To_do_list/to-do-list.xlsx
+++ b/To_do_list/to-do-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\To_do_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417D5B19-8757-4E31-91D0-3C5602BC9BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98330E4E-37DE-4B8B-A7FC-0F4C1FFED327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,7 +186,61 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2455,8 +2509,8 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2814,6 +2868,22 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula xml:space="preserve"> $E$2 = TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/To_do_list/to-do-list.xlsx
+++ b/To_do_list/to-do-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\To_do_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98330E4E-37DE-4B8B-A7FC-0F4C1FFED327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C0320E-2C2F-4682-AB10-F0BAB6D1C290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2510,7 +2510,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2518,6 +2518,7 @@
     <col min="2" max="2" width="31.453125" customWidth="1"/>
     <col min="3" max="3" width="15.36328125" customWidth="1"/>
     <col min="4" max="4" width="11.54296875" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -2884,6 +2885,11 @@
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{B8654218-13EF-44D5-9383-A66EB6045518}">
+      <formula1>"High,Medium,Low"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/To_do_list/to-do-list.xlsx
+++ b/To_do_list/to-do-list.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\To_do_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C0320E-2C2F-4682-AB10-F0BAB6D1C290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38D5B98-BE64-4DFC-833C-7886CDCAFB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>Done</t>
   </si>
@@ -139,6 +148,9 @@
   </si>
   <si>
     <t>Linked</t>
+  </si>
+  <si>
+    <t>Remaining Tasks</t>
   </si>
 </sst>
 </file>
@@ -2506,11 +2518,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2519,9 +2531,10 @@
     <col min="3" max="3" width="15.36328125" customWidth="1"/>
     <col min="4" max="4" width="11.54296875" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2537,8 +2550,11 @@
       <c r="E1" t="s">
         <v>37</v>
       </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -2548,8 +2564,12 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
+      <c r="F2">
+        <f xml:space="preserve"> COUNTIF(E:E, FALSE)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -2560,7 +2580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -2571,7 +2591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2582,7 +2602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -2593,7 +2613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -2604,7 +2624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -2615,7 +2635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -2626,7 +2646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -2637,7 +2657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>16</v>
       </c>
@@ -2648,7 +2668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -2659,7 +2679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>18</v>
       </c>
@@ -2670,7 +2690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>19</v>
       </c>
@@ -2681,7 +2701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -2692,7 +2712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>21</v>
       </c>

--- a/To_do_list/to-do-list.xlsx
+++ b/To_do_list/to-do-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\To_do_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38D5B98-BE64-4DFC-833C-7886CDCAFB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B287852-760A-41B2-A413-04027627FE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,23 +198,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -237,14 +221,6 @@
         <i val="0"/>
         <strike val="0"/>
         <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -286,7 +262,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$15" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$E$15" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -326,7 +302,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$24" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$E$24" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
@@ -374,7 +350,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$8" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$E$8" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2565,8 +2541,8 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <f xml:space="preserve"> COUNTIF(E:E, FALSE)</f>
-        <v>0</v>
+        <f>COUNTIF(E2:E31,FALSE) + COUNTIF(E2:E31,"")</f>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -2634,6 +2610,9 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
@@ -2711,6 +2690,9 @@
       <c r="D15" t="s">
         <v>5</v>
       </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
@@ -2723,7 +2705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -2734,7 +2716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>23</v>
       </c>
@@ -2745,7 +2727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -2756,7 +2738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -2767,7 +2749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>26</v>
       </c>
@@ -2778,7 +2760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>27</v>
       </c>
@@ -2789,7 +2771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>28</v>
       </c>
@@ -2800,7 +2782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>29</v>
       </c>
@@ -2810,8 +2792,11 @@
       <c r="D24" t="s">
         <v>5</v>
       </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -2822,7 +2807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>31</v>
       </c>
@@ -2833,7 +2818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>32</v>
       </c>
@@ -2844,7 +2829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>33</v>
       </c>
@@ -2855,7 +2840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>34</v>
       </c>
@@ -2866,7 +2851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>35</v>
       </c>
@@ -2877,7 +2862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>36</v>
       </c>
@@ -2890,18 +2875,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula xml:space="preserve"> $E$2 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/To_do_list/to-do-list.xlsx
+++ b/To_do_list/to-do-list.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\To_do_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B287852-760A-41B2-A413-04027627FE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2650FC-63BD-4084-ABA4-F3FC1B6E7FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="To-do List" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -198,7 +198,23 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -221,11 +237,6 @@
         <i val="0"/>
         <strike val="0"/>
         <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
   </dxfs>
@@ -2498,7 +2509,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2875,18 +2886,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula xml:space="preserve"> $E$2 = TRUE</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula xml:space="preserve"> E1 = TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
